--- a/medicine/Psychotrope/Brasserie_de_Bertinchamps/Brasserie_de_Bertinchamps.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Bertinchamps/Brasserie_de_Bertinchamps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bertinchamps (appelée aussi Brasserie Bertinchamps, Brasserie de la Ferme de Bertinchamps ou Brasserie-Ferme de Bertinchamps) est une brasserie belge située à Gembloux en province de Namur.  
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette brasserie familiale a commencé à brasser ses premières bières en 2013[1]. Deux ans auparavant, la ferme de Bertinchamps, une très ancienne ferme en carré de la Hesbaye namuroise qui fut annexée en 1343 à la ville de Gembloux, est achetée par la famille Humblet afin de la rénover et d'y installer le matériel nécessaire pour une production brassicole annuelle maximale de 6 000 hl, qui passe à 12 000 hl en 2019. Benoît Humblet, qui a travaillé à la brasserie du Val-Dieu, en est le maître brasseur[2]. L'étiquette représente simplement un grand B (comme Bertinchamps, comme Belgique, comme Bière ou comme Benoît)[3],[4].
-En 2017, le fondateur de la Brasserie Bertinchamps, Benoît Humblet, reçoit le prix du Cercle d’affaires Braville[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette brasserie familiale a commencé à brasser ses premières bières en 2013. Deux ans auparavant, la ferme de Bertinchamps, une très ancienne ferme en carré de la Hesbaye namuroise qui fut annexée en 1343 à la ville de Gembloux, est achetée par la famille Humblet afin de la rénover et d'y installer le matériel nécessaire pour une production brassicole annuelle maximale de 6 000 hl, qui passe à 12 000 hl en 2019. Benoît Humblet, qui a travaillé à la brasserie du Val-Dieu, en est le maître brasseur. L'étiquette représente simplement un grand B (comme Bertinchamps, comme Belgique, comme Bière ou comme Benoît),.
+En 2017, le fondateur de la Brasserie Bertinchamps, Benoît Humblet, reçoit le prix du Cercle d’affaires Braville.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
 Sept bières de terroir différentes sont brassées à la Brasserie de Bertinchamps.
-Quatre bières en bouteilles d'une capacité assez inédite de 50 cl[1].
+Quatre bières en bouteilles d'une capacité assez inédite de 50 cl.
 la Bertinchamps Blonde, une bière blonde titrant 6,2 % en volume d'alcool ;
 la Bertinchamps Triple, une bière blonde triple titrant 8 % en volume d'alcool ;
 la Bertinchamps Brune, une bière brune titrant 7 % en volume d'alcool ;
